--- a/Finflux Automation Excels/Client/4939-Minimum-Days-Between-Disbursal-And-First-Repayment-Date.xlsx
+++ b/Finflux Automation Excels/Client/4939-Minimum-Days-Between-Disbursal-And-First-Repayment-Date.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Village" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>Bangalore Urban</t>
   </si>
   <si>
-    <t>Bengaluru North</t>
-  </si>
-  <si>
     <t>1, Staff</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Anekal</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -1014,18 +1014,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3">
         <v>42005</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3">
         <v>42030</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3">
         <v>42005</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>5000</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>42064</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>5000</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3">
         <v>42005</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -1173,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1181,22 +1181,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1928,34 +1928,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -1965,13 +1965,13 @@
         <v>187</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="12">
         <v>150</v>
@@ -1999,13 +1999,13 @@
         <v>186</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="14">
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="11">
         <v>5000</v>
